--- a/lab03/report/lab03_know_your_hw.xlsx
+++ b/lab03/report/lab03_know_your_hw.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t xml:space="preserve">KNOW YOUR HARDWARE</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Name, surname</t>
   </si>
   <si>
+    <t xml:space="preserve">Pierrick Muller</t>
+  </si>
+  <si>
     <t xml:space="preserve">Basic CPU specifications</t>
   </si>
   <si>
@@ -40,15 +43,36 @@
     <t xml:space="preserve">CPU manufacturer, name &amp; number</t>
   </si>
   <si>
+    <t xml:space="preserve">Intel® Core™ i7-10510U Processor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ark.intel.com/content/www/us/en/ark/products/196449/intel-core-i7-10510u-processor-8m-cache-up-to-4-90-ghz.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of CPU cores</t>
   </si>
   <si>
+    <t xml:space="preserve">4(2 threads par cores)</t>
+  </si>
+  <si>
     <t xml:space="preserve">CPU-core frequency</t>
   </si>
   <si>
+    <t xml:space="preserve">1.80 GHz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Caches number/size and organization</t>
   </si>
   <si>
+    <t xml:space="preserve">L1 Data 32 KiB (x4) 
+L1 Instruction 32 KiB (x4) 
+L2 Unified 256 KiB (x4) 
+L3 Unified 8192 KiB (x1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outpout de gbench (Plus précis sur le nombre de caches que lscpu)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> (search the manual from the chip's producer)</t>
   </si>
   <si>
@@ -58,16 +82,32 @@
     <t xml:space="preserve">Cycles/issue for floating point additions</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.agner.org/optimize/instruction_tables.pdf (FADD(P) FSUB(R)(P), r, page 260, « Reciprocal troughput »)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cycles/issue for floating point multiplications</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.agner.org/optimize/instruction_tables.pdf (FMUL(P), r, page 260, « Reciprocal troughput »)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximum theoretical floating point peak performance (Gflop/s)</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.novatte.com/our-blog/197-how-to-calculate-peak-theoretical-performance-of-a-cpu-based-hpc-system
+https://en.wikipedia.org/wiki/Instructions_per_cycle</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cycles/issue for integer addition</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.agner.org/optimize/instruction_tables.pdf (ADD SUB , r,r/i , page 255, « Reciprocal troughput »)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cycles/issue for integer multiplications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.agner.org/optimize/instruction_tables.pdf (MUL IMUL, r8, page 256, « Reciprocal troughput »)</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum theoretical integer peak performance (Gop/s)</t>
@@ -142,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -215,13 +255,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right style="thin"/>
       <top style="hair"/>
       <bottom/>
@@ -295,7 +328,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -337,26 +370,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -368,7 +401,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -376,34 +409,38 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -473,10 +510,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:D17"/>
+  <dimension ref="B1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -484,7 +521,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="105.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -499,7 +536,9 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,46 +548,62 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
@@ -560,59 +615,93 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="20" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <f aca="false">1.8*4*1</f>
+        <v>7.2</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-    </row>
+        <v>26</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="24" t="n">
+        <f aca="false">1.8*4*(1/0.25)</f>
+        <v>28.8</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:C11"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" display="https://www.agner.org/optimize/instruction_tables.pdf (FADD(P) FSUB(R)(P), r, page 260, « Reciprocal troughput »)"/>
+    <hyperlink ref="D13" r:id="rId2" display="https://www.agner.org/optimize/instruction_tables.pdf (FMUL(P), r, page 260, « Reciprocal troughput »)"/>
+    <hyperlink ref="D15" r:id="rId3" display="https://www.agner.org/optimize/instruction_tables.pdf (ADD SUB , r,r/i , page 255, « Reciprocal troughput »)"/>
+    <hyperlink ref="D16" r:id="rId4" display="https://www.agner.org/optimize/instruction_tables.pdf (MUL IMUL, r8, page 256, « Reciprocal troughput »)"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
